--- a/public/turkana_facilities.xlsx
+++ b/public/turkana_facilities.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="255">
   <si>
     <t xml:space="preserve">MFL Code</t>
   </si>
@@ -746,6 +746,45 @@
   </si>
   <si>
     <t xml:space="preserve">Elelea Health Centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Mary's Kalokol Primary Health Care Programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lodwar District Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkwel Dispensary (Loima)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Catherine's Napetet Dispensary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Patrick's Kanamkemer Dispensary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lokitaung District Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lowarengak Health Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katilu Sub County Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kakuma Refugee Hospital (6 in 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya Red Cross Kalobeyei HC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lopiding Sub-District Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elelea Sub-county Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lokwii Health center</t>
   </si>
 </sst>
 </file>
@@ -755,11 +794,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -784,8 +824,22 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -798,8 +852,14 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF9C0006"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -807,8 +867,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -832,8 +899,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -842,23 +913,124 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -867,10 +1039,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B241"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A232" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A242" activeCellId="0" sqref="A242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -878,7 +1050,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1004" min="4" style="0" width="10.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1004" min="4" style="0" width="10.77"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1005" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -891,7 +1063,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="0" t="n">
         <v>24962</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -899,7 +1071,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="0" t="n">
         <v>24934</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -907,7 +1079,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="0" t="n">
         <v>24972</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -915,7 +1087,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="0" t="n">
         <v>24898</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -923,7 +1095,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="0" t="n">
         <v>24499</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -931,7 +1103,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="0" t="n">
         <v>24380</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -939,7 +1111,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="0" t="n">
         <v>23699</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -947,7 +1119,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="0" t="n">
         <v>23698</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -955,7 +1127,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="0" t="n">
         <v>23697</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -963,7 +1135,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="0" t="n">
         <v>23530</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -971,7 +1143,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="0" t="n">
         <v>23450</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -979,7 +1151,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="0" t="n">
         <v>23618</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -987,7 +1159,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="0" t="n">
         <v>23395</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -995,7 +1167,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="0" t="n">
         <v>22971</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -1003,7 +1175,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="0" t="n">
         <v>22853</v>
       </c>
       <c r="B16" s="0" t="s">
@@ -1011,7 +1183,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="0" t="n">
         <v>22852</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -1019,7 +1191,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="0" t="n">
         <v>22779</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -1027,7 +1199,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="0" t="n">
         <v>22663</v>
       </c>
       <c r="B19" s="0" t="s">
@@ -1035,7 +1207,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="0" t="n">
         <v>22661</v>
       </c>
       <c r="B20" s="0" t="s">
@@ -1043,7 +1215,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="0" t="n">
         <v>22488</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -1051,7 +1223,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="0" t="n">
         <v>22409</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -1059,7 +1231,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="0" t="n">
         <v>22363</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -1067,7 +1239,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="0" t="n">
         <v>22362</v>
       </c>
       <c r="B24" s="0" t="s">
@@ -1075,7 +1247,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="0" t="n">
         <v>22360</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -1083,7 +1255,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="0" t="n">
         <v>22359</v>
       </c>
       <c r="B26" s="0" t="s">
@@ -1091,7 +1263,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="0" t="n">
         <v>22335</v>
       </c>
       <c r="B27" s="0" t="s">
@@ -1099,7 +1271,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="0" t="n">
         <v>22215</v>
       </c>
       <c r="B28" s="0" t="s">
@@ -1107,7 +1279,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="0" t="n">
         <v>22000</v>
       </c>
       <c r="B29" s="0" t="s">
@@ -1115,7 +1287,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="0" t="n">
         <v>21418</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -1123,7 +1295,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="0" t="n">
         <v>21394</v>
       </c>
       <c r="B31" s="0" t="s">
@@ -1131,7 +1303,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="0" t="n">
         <v>21393</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -1139,7 +1311,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="0" t="n">
         <v>21392</v>
       </c>
       <c r="B33" s="0" t="s">
@@ -1147,7 +1319,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="0" t="n">
         <v>21391</v>
       </c>
       <c r="B34" s="0" t="s">
@@ -1155,7 +1327,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="0" t="n">
         <v>21390</v>
       </c>
       <c r="B35" s="0" t="s">
@@ -1163,7 +1335,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="0" t="n">
         <v>21389</v>
       </c>
       <c r="B36" s="0" t="s">
@@ -1171,7 +1343,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="0" t="n">
         <v>21388</v>
       </c>
       <c r="B37" s="0" t="s">
@@ -1179,7 +1351,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="0" t="n">
         <v>21376</v>
       </c>
       <c r="B38" s="0" t="s">
@@ -1187,7 +1359,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="0" t="n">
         <v>21375</v>
       </c>
       <c r="B39" s="0" t="s">
@@ -1195,7 +1367,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="0" t="n">
         <v>21374</v>
       </c>
       <c r="B40" s="0" t="s">
@@ -1203,7 +1375,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="0" t="n">
         <v>21373</v>
       </c>
       <c r="B41" s="0" t="s">
@@ -1211,7 +1383,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="0" t="n">
         <v>21372</v>
       </c>
       <c r="B42" s="0" t="s">
@@ -1219,7 +1391,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="0" t="n">
         <v>21371</v>
       </c>
       <c r="B43" s="0" t="s">
@@ -1227,7 +1399,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="0" t="n">
         <v>21369</v>
       </c>
       <c r="B44" s="0" t="s">
@@ -1235,7 +1407,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="0" t="n">
         <v>21368</v>
       </c>
       <c r="B45" s="0" t="s">
@@ -1243,7 +1415,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="0" t="n">
         <v>21367</v>
       </c>
       <c r="B46" s="0" t="s">
@@ -1251,7 +1423,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="0" t="n">
         <v>21366</v>
       </c>
       <c r="B47" s="0" t="s">
@@ -1259,7 +1431,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="0" t="n">
         <v>21365</v>
       </c>
       <c r="B48" s="0" t="s">
@@ -1267,7 +1439,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="0" t="n">
         <v>21363</v>
       </c>
       <c r="B49" s="0" t="s">
@@ -1275,7 +1447,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="0" t="n">
         <v>21362</v>
       </c>
       <c r="B50" s="0" t="s">
@@ -1283,7 +1455,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="0" t="n">
         <v>21361</v>
       </c>
       <c r="B51" s="0" t="s">
@@ -1291,7 +1463,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="0" t="n">
         <v>21350</v>
       </c>
       <c r="B52" s="0" t="s">
@@ -1299,7 +1471,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="0" t="n">
         <v>21349</v>
       </c>
       <c r="B53" s="0" t="s">
@@ -1307,7 +1479,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="0" t="n">
         <v>21348</v>
       </c>
       <c r="B54" s="0" t="s">
@@ -1315,7 +1487,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="0" t="n">
         <v>21347</v>
       </c>
       <c r="B55" s="0" t="s">
@@ -1323,7 +1495,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="0" t="n">
         <v>21346</v>
       </c>
       <c r="B56" s="0" t="s">
@@ -1331,7 +1503,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="0" t="n">
         <v>21345</v>
       </c>
       <c r="B57" s="0" t="s">
@@ -1339,7 +1511,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="0" t="n">
         <v>21344</v>
       </c>
       <c r="B58" s="0" t="s">
@@ -1347,7 +1519,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="0" t="n">
         <v>21343</v>
       </c>
       <c r="B59" s="0" t="s">
@@ -1355,7 +1527,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="0" t="n">
         <v>21342</v>
       </c>
       <c r="B60" s="0" t="s">
@@ -1363,7 +1535,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="0" t="n">
         <v>21341</v>
       </c>
       <c r="B61" s="0" t="s">
@@ -1371,7 +1543,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="0" t="n">
         <v>21340</v>
       </c>
       <c r="B62" s="0" t="s">
@@ -1379,7 +1551,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="0" t="n">
         <v>21339</v>
       </c>
       <c r="B63" s="0" t="s">
@@ -1387,7 +1559,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="0" t="n">
         <v>21337</v>
       </c>
       <c r="B64" s="0" t="s">
@@ -1395,7 +1567,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="0" t="n">
         <v>21336</v>
       </c>
       <c r="B65" s="0" t="s">
@@ -1403,7 +1575,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="2" t="n">
         <v>21335</v>
       </c>
       <c r="B66" s="0" t="s">
@@ -1411,7 +1583,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="0" t="n">
         <v>21334</v>
       </c>
       <c r="B67" s="0" t="s">
@@ -1419,7 +1591,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="0" t="n">
         <v>21333</v>
       </c>
       <c r="B68" s="0" t="s">
@@ -1427,7 +1599,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="0" t="n">
         <v>21332</v>
       </c>
       <c r="B69" s="0" t="s">
@@ -1435,7 +1607,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="0" t="n">
         <v>21330</v>
       </c>
       <c r="B70" s="0" t="s">
@@ -1443,7 +1615,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="0" t="n">
         <v>21316</v>
       </c>
       <c r="B71" s="0" t="s">
@@ -1451,7 +1623,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="0" t="n">
         <v>21315</v>
       </c>
       <c r="B72" s="0" t="s">
@@ -1459,7 +1631,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="0" t="n">
         <v>21314</v>
       </c>
       <c r="B73" s="0" t="s">
@@ -1467,7 +1639,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="0" t="n">
         <v>21313</v>
       </c>
       <c r="B74" s="0" t="s">
@@ -1475,7 +1647,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="0" t="n">
         <v>21312</v>
       </c>
       <c r="B75" s="0" t="s">
@@ -1483,7 +1655,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="0" t="n">
         <v>21311</v>
       </c>
       <c r="B76" s="0" t="s">
@@ -1491,7 +1663,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="0" t="n">
         <v>21309</v>
       </c>
       <c r="B77" s="0" t="s">
@@ -1499,7 +1671,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="0" t="n">
         <v>21308</v>
       </c>
       <c r="B78" s="0" t="s">
@@ -1507,7 +1679,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="0" t="n">
         <v>21307</v>
       </c>
       <c r="B79" s="0" t="s">
@@ -1515,7 +1687,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="0" t="n">
         <v>21306</v>
       </c>
       <c r="B80" s="0" t="s">
@@ -1523,7 +1695,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="0" t="n">
         <v>21217</v>
       </c>
       <c r="B81" s="0" t="s">
@@ -1531,7 +1703,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="0" t="n">
         <v>21066</v>
       </c>
       <c r="B82" s="0" t="s">
@@ -1539,7 +1711,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="0" t="n">
         <v>21055</v>
       </c>
       <c r="B83" s="0" t="s">
@@ -1547,7 +1719,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="0" t="n">
         <v>20966</v>
       </c>
       <c r="B84" s="0" t="s">
@@ -1555,7 +1727,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="0" t="n">
         <v>20887</v>
       </c>
       <c r="B85" s="0" t="s">
@@ -1563,7 +1735,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="0" t="n">
         <v>20840</v>
       </c>
       <c r="B86" s="0" t="s">
@@ -1571,7 +1743,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="0" t="n">
         <v>20826</v>
       </c>
       <c r="B87" s="0" t="s">
@@ -1579,7 +1751,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="0" t="n">
         <v>20825</v>
       </c>
       <c r="B88" s="0" t="s">
@@ -1587,7 +1759,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="0" t="n">
         <v>20818</v>
       </c>
       <c r="B89" s="0" t="s">
@@ -1595,7 +1767,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="0" t="n">
         <v>20782</v>
       </c>
       <c r="B90" s="0" t="s">
@@ -1603,7 +1775,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="0" t="n">
         <v>20781</v>
       </c>
       <c r="B91" s="0" t="s">
@@ -1611,7 +1783,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="0" t="n">
         <v>20773</v>
       </c>
       <c r="B92" s="0" t="s">
@@ -1619,7 +1791,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="0" t="n">
         <v>20660</v>
       </c>
       <c r="B93" s="0" t="s">
@@ -1627,7 +1799,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="0" t="n">
         <v>20639</v>
       </c>
       <c r="B94" s="0" t="s">
@@ -1635,7 +1807,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="0" t="n">
         <v>20638</v>
       </c>
       <c r="B95" s="0" t="s">
@@ -1643,7 +1815,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="0" t="n">
         <v>20637</v>
       </c>
       <c r="B96" s="0" t="s">
@@ -1651,7 +1823,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="0" t="n">
         <v>20593</v>
       </c>
       <c r="B97" s="0" t="s">
@@ -1659,7 +1831,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="0" t="n">
         <v>20592</v>
       </c>
       <c r="B98" s="0" t="s">
@@ -1667,7 +1839,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="0" t="n">
         <v>20222</v>
       </c>
       <c r="B99" s="0" t="s">
@@ -1675,7 +1847,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="0" t="n">
         <v>20219</v>
       </c>
       <c r="B100" s="0" t="s">
@@ -1683,7 +1855,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="0" t="n">
         <v>20192</v>
       </c>
       <c r="B101" s="0" t="s">
@@ -1691,7 +1863,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="0" t="n">
         <v>20184</v>
       </c>
       <c r="B102" s="0" t="s">
@@ -1699,7 +1871,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="0" t="n">
         <v>20076</v>
       </c>
       <c r="B103" s="0" t="s">
@@ -1707,7 +1879,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="0" t="n">
         <v>20001</v>
       </c>
       <c r="B104" s="0" t="s">
@@ -1715,7 +1887,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="0" t="n">
         <v>20000</v>
       </c>
       <c r="B105" s="0" t="s">
@@ -1723,7 +1895,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="0" t="n">
         <v>19969</v>
       </c>
       <c r="B106" s="0" t="s">
@@ -1731,7 +1903,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="0" t="n">
         <v>18846</v>
       </c>
       <c r="B107" s="0" t="s">
@@ -1739,7 +1911,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="0" t="n">
         <v>18813</v>
       </c>
       <c r="B108" s="0" t="s">
@@ -1747,7 +1919,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="0" t="n">
         <v>18737</v>
       </c>
       <c r="B109" s="0" t="s">
@@ -1755,7 +1927,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="0" t="n">
         <v>18623</v>
       </c>
       <c r="B110" s="0" t="s">
@@ -1763,7 +1935,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="0" t="n">
         <v>18370</v>
       </c>
       <c r="B111" s="0" t="s">
@@ -1771,7 +1943,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="0" t="n">
         <v>18360</v>
       </c>
       <c r="B112" s="0" t="s">
@@ -1779,7 +1951,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="0" t="n">
         <v>18355</v>
       </c>
       <c r="B113" s="0" t="s">
@@ -1787,7 +1959,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="0" t="n">
         <v>18354</v>
       </c>
       <c r="B114" s="0" t="s">
@@ -1795,7 +1967,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="0" t="n">
         <v>18353</v>
       </c>
       <c r="B115" s="0" t="s">
@@ -1803,7 +1975,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="0" t="n">
         <v>18099</v>
       </c>
       <c r="B116" s="0" t="s">
@@ -1811,7 +1983,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="0" t="n">
         <v>18098</v>
       </c>
       <c r="B117" s="0" t="s">
@@ -1819,7 +1991,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="0" t="n">
         <v>18070</v>
       </c>
       <c r="B118" s="0" t="s">
@@ -1827,7 +1999,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="0" t="n">
         <v>17480</v>
       </c>
       <c r="B119" s="0" t="s">
@@ -1835,7 +2007,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="0" t="n">
         <v>17479</v>
       </c>
       <c r="B120" s="0" t="s">
@@ -1843,7 +2015,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="0" t="n">
         <v>17478</v>
       </c>
       <c r="B121" s="0" t="s">
@@ -1851,7 +2023,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="0" t="n">
         <v>17477</v>
       </c>
       <c r="B122" s="0" t="s">
@@ -1859,7 +2031,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="0" t="n">
         <v>17476</v>
       </c>
       <c r="B123" s="0" t="s">
@@ -1867,7 +2039,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="0" t="n">
         <v>17475</v>
       </c>
       <c r="B124" s="0" t="s">
@@ -1875,7 +2047,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="0" t="n">
         <v>17249</v>
       </c>
       <c r="B125" s="0" t="s">
@@ -1883,7 +2055,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="0" t="n">
         <v>17246</v>
       </c>
       <c r="B126" s="0" t="s">
@@ -1891,7 +2063,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="0" t="n">
         <v>17231</v>
       </c>
       <c r="B127" s="0" t="s">
@@ -1899,7 +2071,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="0" t="n">
         <v>17196</v>
       </c>
       <c r="B128" s="0" t="s">
@@ -1907,7 +2079,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="0" t="n">
         <v>17184</v>
       </c>
       <c r="B129" s="0" t="s">
@@ -1915,7 +2087,7 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="0" t="n">
         <v>17180</v>
       </c>
       <c r="B130" s="0" t="s">
@@ -1923,7 +2095,7 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="0" t="n">
         <v>17040</v>
       </c>
       <c r="B131" s="0" t="s">
@@ -1931,7 +2103,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="0" t="n">
         <v>15535</v>
       </c>
       <c r="B132" s="0" t="s">
@@ -1939,7 +2111,7 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="0" t="n">
         <v>16699</v>
       </c>
       <c r="B133" s="0" t="s">
@@ -1947,7 +2119,7 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="0" t="n">
         <v>15285</v>
       </c>
       <c r="B134" s="0" t="s">
@@ -1955,7 +2127,7 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="0" t="n">
         <v>16324</v>
       </c>
       <c r="B135" s="0" t="s">
@@ -1963,7 +2135,7 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="0" t="n">
         <v>14440</v>
       </c>
       <c r="B136" s="0" t="s">
@@ -1971,7 +2143,7 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="0" t="n">
         <v>14209</v>
       </c>
       <c r="B137" s="0" t="s">
@@ -1979,7 +2151,7 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="0" t="n">
         <v>15315</v>
       </c>
       <c r="B138" s="0" t="s">
@@ -1987,7 +2159,7 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="0" t="n">
         <v>15271</v>
       </c>
       <c r="B139" s="0" t="s">
@@ -1995,7 +2167,7 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="0" t="n">
         <v>14974</v>
       </c>
       <c r="B140" s="0" t="s">
@@ -2003,7 +2175,7 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="0" t="n">
         <v>15445</v>
       </c>
       <c r="B141" s="0" t="s">
@@ -2011,7 +2183,7 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="0" t="n">
         <v>14662</v>
       </c>
       <c r="B142" s="0" t="s">
@@ -2019,7 +2191,7 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="0" t="n">
         <v>15303</v>
       </c>
       <c r="B143" s="0" t="s">
@@ -2027,7 +2199,7 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="0" t="n">
         <v>15063</v>
       </c>
       <c r="B144" s="0" t="s">
@@ -2035,7 +2207,7 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="n">
+      <c r="A145" s="0" t="n">
         <v>14814</v>
       </c>
       <c r="B145" s="0" t="s">
@@ -2043,7 +2215,7 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="n">
+      <c r="A146" s="0" t="n">
         <v>16697</v>
       </c>
       <c r="B146" s="0" t="s">
@@ -2051,7 +2223,7 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="n">
+      <c r="A147" s="0" t="n">
         <v>15031</v>
       </c>
       <c r="B147" s="0" t="s">
@@ -2059,7 +2231,7 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="n">
+      <c r="A148" s="0" t="n">
         <v>15661</v>
       </c>
       <c r="B148" s="0" t="s">
@@ -2067,7 +2239,7 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="n">
+      <c r="A149" s="0" t="n">
         <v>15308</v>
       </c>
       <c r="B149" s="0" t="s">
@@ -2075,7 +2247,7 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="n">
+      <c r="A150" s="0" t="n">
         <v>15634</v>
       </c>
       <c r="B150" s="0" t="s">
@@ -2083,7 +2255,7 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="n">
+      <c r="A151" s="0" t="n">
         <v>14661</v>
       </c>
       <c r="B151" s="0" t="s">
@@ -2091,7 +2263,7 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="n">
+      <c r="A152" s="0" t="n">
         <v>15061</v>
       </c>
       <c r="B152" s="0" t="s">
@@ -2099,7 +2271,7 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="n">
+      <c r="A153" s="0" t="n">
         <v>15310</v>
       </c>
       <c r="B153" s="0" t="s">
@@ -2107,7 +2279,7 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="n">
+      <c r="A154" s="0" t="n">
         <v>14687</v>
       </c>
       <c r="B154" s="0" t="s">
@@ -2115,7 +2287,7 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="n">
+      <c r="A155" s="0" t="n">
         <v>14527</v>
       </c>
       <c r="B155" s="0" t="s">
@@ -2123,7 +2295,7 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="n">
+      <c r="A156" s="0" t="n">
         <v>14686</v>
       </c>
       <c r="B156" s="0" t="s">
@@ -2131,7 +2303,7 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2" t="n">
+      <c r="A157" s="0" t="n">
         <v>15275</v>
       </c>
       <c r="B157" s="0" t="s">
@@ -2139,7 +2311,7 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="n">
+      <c r="A158" s="0" t="n">
         <v>14795</v>
       </c>
       <c r="B158" s="0" t="s">
@@ -2147,7 +2319,7 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="n">
+      <c r="A159" s="0" t="n">
         <v>15085</v>
       </c>
       <c r="B159" s="0" t="s">
@@ -2155,7 +2327,7 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="n">
+      <c r="A160" s="0" t="n">
         <v>15307</v>
       </c>
       <c r="B160" s="0" t="s">
@@ -2163,7 +2335,7 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="n">
+      <c r="A161" s="0" t="n">
         <v>14683</v>
       </c>
       <c r="B161" s="0" t="s">
@@ -2171,7 +2343,7 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="n">
+      <c r="A162" s="0" t="n">
         <v>14656</v>
       </c>
       <c r="B162" s="0" t="s">
@@ -2179,7 +2351,7 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="n">
+      <c r="A163" s="0" t="n">
         <v>15291</v>
       </c>
       <c r="B163" s="0" t="s">
@@ -2187,7 +2359,7 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="n">
+      <c r="A164" s="0" t="n">
         <v>15092</v>
       </c>
       <c r="B164" s="0" t="s">
@@ -2195,7 +2367,7 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="n">
+      <c r="A165" s="0" t="n">
         <v>15058</v>
       </c>
       <c r="B165" s="0" t="s">
@@ -2203,7 +2375,7 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="n">
+      <c r="A166" s="0" t="n">
         <v>15054</v>
       </c>
       <c r="B166" s="0" t="s">
@@ -2211,7 +2383,7 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="n">
+      <c r="A167" s="0" t="n">
         <v>15060</v>
       </c>
       <c r="B167" s="0" t="s">
@@ -2219,7 +2391,7 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="n">
+      <c r="A168" s="0" t="n">
         <v>15055</v>
       </c>
       <c r="B168" s="0" t="s">
@@ -2227,7 +2399,7 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="n">
+      <c r="A169" s="0" t="n">
         <v>14231</v>
       </c>
       <c r="B169" s="0" t="s">
@@ -2235,7 +2407,7 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="n">
+      <c r="A170" s="0" t="n">
         <v>14481</v>
       </c>
       <c r="B170" s="0" t="s">
@@ -2243,7 +2415,7 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="n">
+      <c r="A171" s="0" t="n">
         <v>14654</v>
       </c>
       <c r="B171" s="0" t="s">
@@ -2251,7 +2423,7 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="n">
+      <c r="A172" s="0" t="n">
         <v>15749</v>
       </c>
       <c r="B172" s="0" t="s">
@@ -2259,7 +2431,7 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="n">
+      <c r="A173" s="0" t="n">
         <v>15089</v>
       </c>
       <c r="B173" s="0" t="s">
@@ -2267,7 +2439,7 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="n">
+      <c r="A174" s="0" t="n">
         <v>15299</v>
       </c>
       <c r="B174" s="0" t="s">
@@ -2275,7 +2447,7 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="n">
+      <c r="A175" s="0" t="n">
         <v>15301</v>
       </c>
       <c r="B175" s="0" t="s">
@@ -2283,7 +2455,7 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2" t="n">
+      <c r="A176" s="0" t="n">
         <v>15066</v>
       </c>
       <c r="B176" s="0" t="s">
@@ -2291,7 +2463,7 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="n">
+      <c r="A177" s="0" t="n">
         <v>16700</v>
       </c>
       <c r="B177" s="0" t="s">
@@ -2299,7 +2471,7 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2" t="n">
+      <c r="A178" s="0" t="n">
         <v>14540</v>
       </c>
       <c r="B178" s="0" t="s">
@@ -2307,7 +2479,7 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="2" t="n">
+      <c r="A179" s="0" t="n">
         <v>14700</v>
       </c>
       <c r="B179" s="0" t="s">
@@ -2315,7 +2487,7 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="2" t="n">
+      <c r="A180" s="0" t="n">
         <v>15084</v>
       </c>
       <c r="B180" s="0" t="s">
@@ -2323,7 +2495,7 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="n">
+      <c r="A181" s="0" t="n">
         <v>15050</v>
       </c>
       <c r="B181" s="0" t="s">
@@ -2331,7 +2503,7 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2" t="n">
+      <c r="A182" s="0" t="n">
         <v>15273</v>
       </c>
       <c r="B182" s="0" t="s">
@@ -2339,7 +2511,7 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="n">
+      <c r="A183" s="0" t="n">
         <v>15062</v>
       </c>
       <c r="B183" s="0" t="s">
@@ -2347,7 +2519,7 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2" t="n">
+      <c r="A184" s="0" t="n">
         <v>14975</v>
       </c>
       <c r="B184" s="0" t="s">
@@ -2355,7 +2527,7 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2" t="n">
+      <c r="A185" s="0" t="n">
         <v>14994</v>
       </c>
       <c r="B185" s="0" t="s">
@@ -2363,7 +2535,7 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="n">
+      <c r="A186" s="0" t="n">
         <v>15044</v>
       </c>
       <c r="B186" s="0" t="s">
@@ -2371,7 +2543,7 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2" t="n">
+      <c r="A187" s="0" t="n">
         <v>14685</v>
       </c>
       <c r="B187" s="0" t="s">
@@ -2379,7 +2551,7 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="n">
+      <c r="A188" s="0" t="n">
         <v>15098</v>
       </c>
       <c r="B188" s="0" t="s">
@@ -2387,7 +2559,7 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="n">
+      <c r="A189" s="0" t="n">
         <v>14989</v>
       </c>
       <c r="B189" s="0" t="s">
@@ -2395,7 +2567,7 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2" t="n">
+      <c r="A190" s="0" t="n">
         <v>15072</v>
       </c>
       <c r="B190" s="0" t="s">
@@ -2403,7 +2575,7 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="n">
+      <c r="A191" s="0" t="n">
         <v>15298</v>
       </c>
       <c r="B191" s="0" t="s">
@@ -2411,7 +2583,7 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="n">
+      <c r="A192" s="0" t="n">
         <v>16698</v>
       </c>
       <c r="B192" s="0" t="s">
@@ -2419,7 +2591,7 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="n">
+      <c r="A193" s="0" t="n">
         <v>14593</v>
       </c>
       <c r="B193" s="0" t="s">
@@ -2427,7 +2599,7 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="n">
+      <c r="A194" s="0" t="n">
         <v>14637</v>
       </c>
       <c r="B194" s="0" t="s">
@@ -2435,7 +2607,7 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2" t="n">
+      <c r="A195" s="0" t="n">
         <v>15094</v>
       </c>
       <c r="B195" s="0" t="s">
@@ -2443,7 +2615,7 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2" t="n">
+      <c r="A196" s="0" t="n">
         <v>15034</v>
       </c>
       <c r="B196" s="0" t="s">
@@ -2451,7 +2623,7 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="n">
+      <c r="A197" s="0" t="n">
         <v>14863</v>
       </c>
       <c r="B197" s="0" t="s">
@@ -2459,7 +2631,7 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2" t="n">
+      <c r="A198" s="0" t="n">
         <v>14186</v>
       </c>
       <c r="B198" s="0" t="s">
@@ -2467,7 +2639,7 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2" t="n">
+      <c r="A199" s="0" t="n">
         <v>14854</v>
       </c>
       <c r="B199" s="0" t="s">
@@ -2475,7 +2647,7 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2" t="n">
+      <c r="A200" s="0" t="n">
         <v>15662</v>
       </c>
       <c r="B200" s="0" t="s">
@@ -2483,7 +2655,7 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="n">
+      <c r="A201" s="0" t="n">
         <v>15731</v>
       </c>
       <c r="B201" s="0" t="s">
@@ -2491,7 +2663,7 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2" t="n">
+      <c r="A202" s="0" t="n">
         <v>15754</v>
       </c>
       <c r="B202" s="0" t="s">
@@ -2499,7 +2671,7 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="2" t="n">
+      <c r="A203" s="0" t="n">
         <v>15059</v>
       </c>
       <c r="B203" s="0" t="s">
@@ -2507,7 +2679,7 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2" t="n">
+      <c r="A204" s="0" t="n">
         <v>15117</v>
       </c>
       <c r="B204" s="0" t="s">
@@ -2515,7 +2687,7 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2" t="n">
+      <c r="A205" s="0" t="n">
         <v>14663</v>
       </c>
       <c r="B205" s="0" t="s">
@@ -2523,7 +2695,7 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="2" t="n">
+      <c r="A206" s="0" t="n">
         <v>15225</v>
       </c>
       <c r="B206" s="0" t="s">
@@ -2531,7 +2703,7 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="2" t="n">
+      <c r="A207" s="0" t="n">
         <v>14838</v>
       </c>
       <c r="B207" s="0" t="s">
@@ -2539,7 +2711,7 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="2" t="n">
+      <c r="A208" s="0" t="n">
         <v>15082</v>
       </c>
       <c r="B208" s="0" t="s">
@@ -2547,7 +2719,7 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="2" t="n">
+      <c r="A209" s="0" t="n">
         <v>15557</v>
       </c>
       <c r="B209" s="0" t="s">
@@ -2555,7 +2727,7 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="2" t="n">
+      <c r="A210" s="0" t="n">
         <v>14818</v>
       </c>
       <c r="B210" s="0" t="s">
@@ -2563,7 +2735,7 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="2" t="n">
+      <c r="A211" s="0" t="n">
         <v>15064</v>
       </c>
       <c r="B211" s="0" t="s">
@@ -2571,7 +2743,7 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="2" t="n">
+      <c r="A212" s="0" t="n">
         <v>14813</v>
       </c>
       <c r="B212" s="0" t="s">
@@ -2579,7 +2751,7 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="2" t="n">
+      <c r="A213" s="0" t="n">
         <v>14681</v>
       </c>
       <c r="B213" s="0" t="s">
@@ -2587,7 +2759,7 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="2" t="n">
+      <c r="A214" s="0" t="n">
         <v>15045</v>
       </c>
       <c r="B214" s="0" t="s">
@@ -2595,7 +2767,7 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="2" t="n">
+      <c r="A215" s="0" t="n">
         <v>14645</v>
       </c>
       <c r="B215" s="0" t="s">
@@ -2603,7 +2775,7 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2" t="n">
+      <c r="A216" s="0" t="n">
         <v>15186</v>
       </c>
       <c r="B216" s="0" t="s">
@@ -2611,7 +2783,7 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="2" t="n">
+      <c r="A217" s="0" t="n">
         <v>15292</v>
       </c>
       <c r="B217" s="0" t="s">
@@ -2619,7 +2791,7 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="2" t="n">
+      <c r="A218" s="0" t="n">
         <v>15057</v>
       </c>
       <c r="B218" s="0" t="s">
@@ -2627,7 +2799,7 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2" t="n">
+      <c r="A219" s="0" t="n">
         <v>15043</v>
       </c>
       <c r="B219" s="0" t="s">
@@ -2635,7 +2807,7 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="n">
+      <c r="A220" s="0" t="n">
         <v>14682</v>
       </c>
       <c r="B220" s="0" t="s">
@@ -2643,7 +2815,7 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="2" t="n">
+      <c r="A221" s="0" t="n">
         <v>15056</v>
       </c>
       <c r="B221" s="0" t="s">
@@ -2651,7 +2823,7 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="2" t="n">
+      <c r="A222" s="0" t="n">
         <v>15067</v>
       </c>
       <c r="B222" s="0" t="s">
@@ -2659,7 +2831,7 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="2" t="n">
+      <c r="A223" s="0" t="n">
         <v>14643</v>
       </c>
       <c r="B223" s="0" t="s">
@@ -2667,7 +2839,7 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="2" t="n">
+      <c r="A224" s="0" t="n">
         <v>14636</v>
       </c>
       <c r="B224" s="0" t="s">
@@ -2675,7 +2847,7 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="2" t="n">
+      <c r="A225" s="0" t="n">
         <v>14604</v>
       </c>
       <c r="B225" s="0" t="s">
@@ -2683,7 +2855,7 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="2" t="n">
+      <c r="A226" s="0" t="n">
         <v>14660</v>
       </c>
       <c r="B226" s="0" t="s">
@@ -2691,7 +2863,7 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="2" t="n">
+      <c r="A227" s="0" t="n">
         <v>15088</v>
       </c>
       <c r="B227" s="0" t="s">
@@ -2699,7 +2871,7 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="2" t="n">
+      <c r="A228" s="0" t="n">
         <v>14796</v>
       </c>
       <c r="B228" s="0" t="s">
@@ -2707,7 +2879,7 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="2" t="n">
+      <c r="A229" s="0" t="n">
         <v>14579</v>
       </c>
       <c r="B229" s="0" t="s">
@@ -2715,7 +2887,7 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="2" t="n">
+      <c r="A230" s="0" t="n">
         <v>15083</v>
       </c>
       <c r="B230" s="0" t="s">
@@ -2723,7 +2895,7 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="2" t="n">
+      <c r="A231" s="0" t="n">
         <v>14655</v>
       </c>
       <c r="B231" s="0" t="s">
@@ -2731,7 +2903,7 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="2" t="n">
+      <c r="A232" s="0" t="n">
         <v>15096</v>
       </c>
       <c r="B232" s="0" t="s">
@@ -2739,7 +2911,7 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="2" t="n">
+      <c r="A233" s="0" t="n">
         <v>15081</v>
       </c>
       <c r="B233" s="0" t="s">
@@ -2747,7 +2919,7 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="2" t="n">
+      <c r="A234" s="0" t="n">
         <v>15309</v>
       </c>
       <c r="B234" s="0" t="s">
@@ -2755,7 +2927,7 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="2" t="n">
+      <c r="A235" s="0" t="n">
         <v>15284</v>
       </c>
       <c r="B235" s="0" t="s">
@@ -2763,7 +2935,7 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="2" t="n">
+      <c r="A236" s="0" t="n">
         <v>14699</v>
       </c>
       <c r="B236" s="0" t="s">
@@ -2771,7 +2943,7 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="2" t="n">
+      <c r="A237" s="0" t="n">
         <v>15049</v>
       </c>
       <c r="B237" s="0" t="s">
@@ -2779,7 +2951,7 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="2" t="n">
+      <c r="A238" s="0" t="n">
         <v>15629</v>
       </c>
       <c r="B238" s="0" t="s">
@@ -2787,7 +2959,7 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="2" t="n">
+      <c r="A239" s="0" t="n">
         <v>14996</v>
       </c>
       <c r="B239" s="0" t="s">
@@ -2795,7 +2967,7 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="2" t="n">
+      <c r="A240" s="0" t="n">
         <v>14601</v>
       </c>
       <c r="B240" s="0" t="s">
@@ -2803,14 +2975,376 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="2" t="n">
+      <c r="A241" s="0" t="n">
         <v>14436</v>
       </c>
       <c r="B241" s="0" t="s">
         <v>241</v>
       </c>
     </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="3" t="n">
+        <v>14663</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="3" t="n">
+        <v>15656</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="3" t="n">
+        <v>15301</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="3" t="n">
+        <v>15049</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="3" t="n">
+        <v>14661</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="3" t="n">
+        <v>15089</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="3" t="n">
+        <v>15273</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="3" t="n">
+        <v>15754</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="3" t="n">
+        <v>15634</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="3" t="n">
+        <v>15661</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="3" t="n">
+        <v>15662</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="3" t="n">
+        <v>14681</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="3" t="n">
+        <v>15062</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="3" t="n">
+        <v>14643</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="3" t="n">
+        <v>15310</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="3" t="n">
+        <v>15096</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="3" t="n">
+        <v>14814</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="3" t="n">
+        <v>15057</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="3" t="n">
+        <v>14818</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="3" t="n">
+        <v>15292</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="3" t="n">
+        <v>14645</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="3" t="n">
+        <v>14660</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="3" t="n">
+        <v>15117</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="3" t="n">
+        <v>14579</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="3" t="n">
+        <v>14655</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="3" t="n">
+        <v>22215</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="3" t="n">
+        <v>15081</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="3" t="n">
+        <v>15059</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="3" t="n">
+        <v>15291</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="3" t="n">
+        <v>15303</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="3" t="n">
+        <v>15315</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="3" t="n">
+        <v>15445</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="3" t="n">
+        <v>15064</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="3" t="n">
+        <v>14436</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="3" t="n">
+        <v>14989</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="3" t="n">
+        <v>15031</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="3" t="n">
+        <v>15045</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="3" t="n">
+        <v>15067</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="3" t="n">
+        <v>15275</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="3" t="n">
+        <v>15186</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="3" t="n">
+        <v>14838</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="3" t="n">
+        <v>15285</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="3" t="n">
+        <v>15299</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="3" t="n">
+        <v>16324</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A242:A281">
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B242:B285">
+    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/public/turkana_facilities.xlsx
+++ b/public/turkana_facilities.xlsx
@@ -794,7 +794,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -816,62 +816,21 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF9C0006"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -904,33 +863,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -941,96 +880,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF9C0006"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFC7CE"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1041,8 +892,8 @@
   </sheetPr>
   <dimension ref="A1:B285"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A232" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A242" activeCellId="0" sqref="A242"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1054,11 +905,11 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1005" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1575,7 +1426,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="0" t="n">
         <v>21335</v>
       </c>
       <c r="B66" s="0" t="s">
@@ -2983,368 +2834,358 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="3" t="n">
+      <c r="A242" s="1" t="n">
         <v>14663</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="3" t="n">
+      <c r="A243" s="1" t="n">
         <v>15656</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="3" t="n">
+      <c r="A244" s="1" t="n">
         <v>15301</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="3" t="n">
+      <c r="A245" s="1" t="n">
         <v>15049</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="3" t="n">
+      <c r="A246" s="1" t="n">
         <v>14661</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="3" t="n">
+      <c r="A247" s="1" t="n">
         <v>15089</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="3" t="n">
+      <c r="A248" s="1" t="n">
         <v>15273</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="3" t="n">
+      <c r="A249" s="1" t="n">
         <v>15754</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" s="1" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="3" t="n">
+      <c r="A250" s="1" t="n">
         <v>15634</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="3" t="n">
+      <c r="A251" s="1" t="n">
         <v>15661</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="3" t="n">
+      <c r="A252" s="1" t="n">
         <v>15662</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="3" t="n">
+      <c r="A253" s="1" t="n">
         <v>14681</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="3" t="n">
+      <c r="A254" s="1" t="n">
         <v>15062</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" s="1" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="3" t="n">
+      <c r="A255" s="1" t="n">
         <v>14643</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="3" t="n">
+      <c r="A256" s="1" t="n">
         <v>15310</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="3" t="n">
+      <c r="A257" s="1" t="n">
         <v>15096</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" s="1" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="3" t="n">
+      <c r="A258" s="1" t="n">
         <v>14814</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="3" t="n">
+      <c r="A259" s="1" t="n">
         <v>15057</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="3" t="n">
+      <c r="A260" s="1" t="n">
         <v>14818</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="3" t="n">
+      <c r="A261" s="1" t="n">
         <v>15292</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="3" t="n">
+      <c r="A262" s="1" t="n">
         <v>14645</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="3" t="n">
+      <c r="A263" s="1" t="n">
         <v>14660</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="3" t="n">
+      <c r="A264" s="1" t="n">
         <v>15117</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="3" t="n">
+      <c r="A265" s="1" t="n">
         <v>14579</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B265" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="3" t="n">
+      <c r="A266" s="1" t="n">
         <v>14655</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="3" t="n">
+      <c r="A267" s="1" t="n">
         <v>22215</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="3" t="n">
+      <c r="A268" s="1" t="n">
         <v>15081</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" s="1" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="3" t="n">
+      <c r="A269" s="1" t="n">
         <v>15059</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="3" t="n">
+      <c r="A270" s="1" t="n">
         <v>15291</v>
       </c>
-      <c r="B270" s="5" t="s">
+      <c r="B270" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="3" t="n">
+      <c r="A271" s="1" t="n">
         <v>15303</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="3" t="n">
+      <c r="A272" s="1" t="n">
         <v>15315</v>
       </c>
-      <c r="B272" s="5" t="s">
+      <c r="B272" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="3" t="n">
+      <c r="A273" s="1" t="n">
         <v>15445</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="3" t="n">
+      <c r="A274" s="1" t="n">
         <v>15064</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="3" t="n">
+      <c r="A275" s="1" t="n">
         <v>14436</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="3" t="n">
+      <c r="A276" s="1" t="n">
         <v>14989</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="3" t="n">
+      <c r="A277" s="1" t="n">
         <v>15031</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B277" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="3" t="n">
+      <c r="A278" s="1" t="n">
         <v>15045</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="3" t="n">
+      <c r="A279" s="1" t="n">
         <v>15067</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="3" t="n">
+      <c r="A280" s="1" t="n">
         <v>15275</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="3" t="n">
+      <c r="A281" s="1" t="n">
         <v>15186</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="3" t="n">
+      <c r="A282" s="1" t="n">
         <v>14838</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="3" t="n">
+      <c r="A283" s="1" t="n">
         <v>15285</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="3" t="n">
+      <c r="A284" s="1" t="n">
         <v>15299</v>
       </c>
-      <c r="B284" s="6" t="s">
+      <c r="B284" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="3" t="n">
+      <c r="A285" s="1" t="n">
         <v>16324</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" s="1" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A242:A281">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B242:B285">
-    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
